--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -136,22 +136,22 @@
     <t>join</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>gt</t>
@@ -1586,25 +1586,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6965811965811965</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L24">
         <v>163</v>
       </c>
       <c r="M24">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1664,25 +1664,25 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6165644171779141</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L27">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1690,25 +1690,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6129032258064516</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1716,25 +1716,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.6119402985074627</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1742,25 +1742,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5973684210526315</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="N30">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1768,25 +1768,25 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5973684210526315</v>
+        <v>0.59375</v>
       </c>
       <c r="L31">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1794,25 +1794,25 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.59375</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="10:17">
